--- a/data/rexroth_category_hierarchy.xlsx
+++ b/data/rexroth_category_hierarchy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/genai/rexroth-product-category/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snh3sgh\Desktop\genai\rexroth-product-category\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B74F01E-BEA5-4C4D-9FB7-E97C746DB46B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C61AE-937F-4F91-A377-F7D56A6C814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{BB358724-0634-0C46-B4E7-AFE21110D717}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB358724-0634-0C46-B4E7-AFE21110D717}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,14 +316,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -357,7 +357,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -672,15 +672,15 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
